--- a/06-03-2023/data/output/xlsx/sample_0/category__8.xlsx
+++ b/06-03-2023/data/output/xlsx/sample_0/category__8.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="140">
   <si>
     <t>Causality Values Chart</t>
   </si>
@@ -52,21 +52,45 @@
     <t>num_of_adds_and_subs__0</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__1,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__0,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__2</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__4</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__5</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__7</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__8</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__9</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__10</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__11</t>
   </si>
   <si>
@@ -91,40 +115,184 @@
     <t>num_of_adds_and_subs__18</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__4</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__6</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__7</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__8</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__9</t>
+    <t>num_of_mults_and_divs__0</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__1</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__2</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__3</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__4</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__5</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__6</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__7</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__8</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__9</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__10</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__11</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__12</t>
+  </si>
+  <si>
+    <t>num_of_mults_and_divs__13</t>
+  </si>
+  <si>
+    <t>num_of_equals__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_equals__1,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4</t>
+  </si>
+  <si>
+    <t>num_of_equals__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_equals__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4</t>
+  </si>
+  <si>
+    <t>num_of_equals__2</t>
+  </si>
+  <si>
+    <t>num_of_equals__3</t>
+  </si>
+  <si>
+    <t>num_of_equals__4</t>
+  </si>
+  <si>
+    <t>num_of_equals__5</t>
+  </si>
+  <si>
+    <t>num_of_equals__6</t>
+  </si>
+  <si>
+    <t>num_of_equals__7</t>
+  </si>
+  <si>
+    <t>num_of_equals__8</t>
+  </si>
+  <si>
+    <t>num_of_equals__9</t>
+  </si>
+  <si>
+    <t>num_of_equals__10</t>
+  </si>
+  <si>
+    <t>num_of_equals__11</t>
+  </si>
+  <si>
+    <t>num_of_equals__12</t>
+  </si>
+  <si>
+    <t>num_of_equals__13</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_equals__0,num_of_equals__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__3</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__4</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__5</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__6</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__7</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__8</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__9</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__10</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__11</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__12</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__13</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__14</t>
   </si>
   <si>
     <t>num_of_decimals__0</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__1,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4</t>
   </si>
   <si>
     <t>num_of_decimals__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__2,num_of_decimals__3,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4</t>
+  </si>
+  <si>
+    <t>num_of_decimals__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4</t>
+  </si>
+  <si>
+    <t>num_of_decimals__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4</t>
+  </si>
+  <si>
+    <t>num_of_decimals__4</t>
+  </si>
+  <si>
+    <t>num_of_decimals__5</t>
+  </si>
+  <si>
+    <t>num_of_decimals__6</t>
+  </si>
+  <si>
+    <t>num_of_decimals__7</t>
+  </si>
+  <si>
+    <t>num_of_decimals__8</t>
+  </si>
+  <si>
+    <t>num_of_decimals__9</t>
   </si>
   <si>
     <t>num_of_decimals__10</t>
@@ -157,12 +325,6 @@
     <t>num_of_decimals__19</t>
   </si>
   <si>
-    <t>num_of_decimals__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1</t>
-  </si>
-  <si>
     <t>num_of_decimals__20</t>
   </si>
   <si>
@@ -193,127 +355,43 @@
     <t>num_of_decimals__29</t>
   </si>
   <si>
-    <t>num_of_decimals__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_decimals__4</t>
-  </si>
-  <si>
-    <t>num_of_decimals__5</t>
-  </si>
-  <si>
-    <t>num_of_decimals__6</t>
-  </si>
-  <si>
-    <t>num_of_decimals__7</t>
-  </si>
-  <si>
-    <t>num_of_decimals__8</t>
-  </si>
-  <si>
-    <t>num_of_decimals__9</t>
-  </si>
-  <si>
-    <t>num_of_equals__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_equals__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_equals__10</t>
-  </si>
-  <si>
-    <t>num_of_equals__11</t>
-  </si>
-  <si>
-    <t>num_of_equals__12</t>
-  </si>
-  <si>
-    <t>num_of_equals__13</t>
-  </si>
-  <si>
-    <t>num_of_equals__2</t>
-  </si>
-  <si>
-    <t>num_of_equals__3</t>
-  </si>
-  <si>
-    <t>num_of_equals__4</t>
-  </si>
-  <si>
-    <t>num_of_equals__5</t>
-  </si>
-  <si>
-    <t>num_of_equals__6</t>
-  </si>
-  <si>
-    <t>num_of_equals__7</t>
-  </si>
-  <si>
-    <t>num_of_equals__8</t>
-  </si>
-  <si>
-    <t>num_of_equals__9</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__0</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__1</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__10</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__11</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__12</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__13</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__2</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__3</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__4</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__5</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__6</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__7</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__8</t>
-  </si>
-  <si>
-    <t>num_of_mults_and_divs__9</t>
-  </si>
-  <si>
     <t>num_of_unknowns__0</t>
   </si>
   <si>
     <t>num_of_unknowns__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_unknowns__3,num_of_unknowns__4</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_unknowns__1,num_of_unknowns__4</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__4</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_unknowns__1,num_of_unknowns__3</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__5</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__7</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__9</t>
   </si>
   <si>
     <t>num_of_unknowns__10</t>
@@ -323,84 +401,6 @@
   </si>
   <si>
     <t>num_of_unknowns__12</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__4,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__4</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__3,pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__5</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__7</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__8</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__9</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__0</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__10</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__11</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__12</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__13</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__14</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__3</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__4</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__6</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__7</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__8</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__9</t>
   </si>
   <si>
     <t>Number of Additions And Subtractions Chart</t>
@@ -556,30 +556,42 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>AddsSubs!$C$4:$C$7</c:f>
+              <c:f>AddsSubs!$C$4:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AddsSubs!$D$4:$D$7</c:f>
+              <c:f>AddsSubs!$D$4:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.01838610827374872</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.01937046004842615</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01294498381877023</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.005050505050505051</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -844,30 +856,48 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Equations!$C$4:$C$7</c:f>
+              <c:f>Equations!$C$4:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Equations!$D$4:$D$7</c:f>
+              <c:f>Equations!$D$4:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.01805416248746239</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.01816347124117054</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0111317254174397</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01453488372093023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.004901960784313725</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -988,30 +1018,42 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Decimals!$C$4:$C$7</c:f>
+              <c:f>Decimals!$C$4:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Decimals!$D$4:$D$7</c:f>
+              <c:f>Decimals!$D$4:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.02090032154340836</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.01829268292682927</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01917808219178082</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.02766798418972332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1132,30 +1174,48 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Unknowns!$C$4:$C$7</c:f>
+              <c:f>Unknowns!$C$4:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Unknowns!$D$4:$D$7</c:f>
+              <c:f>Unknowns!$D$4:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.01803607214428858</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.02196193265007321</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01052631578947368</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01923076923076923</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04347826086956522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1962,13 +2022,13 @@
         <v>13</v>
       </c>
       <c r="B5" s="1">
-        <v>10</v>
+        <v>309</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>0.01294498381877023</v>
       </c>
       <c r="E5" s="1">
         <v>0.01803607214428858</v>
@@ -1983,13 +2043,13 @@
         <v>15</v>
       </c>
       <c r="B6" s="1">
-        <v>9</v>
+        <v>198</v>
       </c>
       <c r="C6" s="1">
         <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>0.005050505050505051</v>
       </c>
       <c r="E6" s="1">
         <v>0.01803607214428858</v>
@@ -2004,7 +2064,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="1">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="C7" s="1">
         <v>5</v>
@@ -2025,7 +2085,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="1">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="C8" s="1">
         <v>6</v>
@@ -2046,7 +2106,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="1">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
@@ -2067,7 +2127,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1">
         <v>8</v>
@@ -2088,7 +2148,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="1">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1">
         <v>9</v>
@@ -2109,7 +2169,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="1">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1">
         <v>10</v>
@@ -2130,7 +2190,7 @@
         <v>22</v>
       </c>
       <c r="B13" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1">
         <v>11</v>
@@ -2151,13 +2211,13 @@
         <v>23</v>
       </c>
       <c r="B14" s="1">
-        <v>309</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1">
         <v>12</v>
       </c>
       <c r="D14" s="1">
-        <v>0.01294498381877023</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
         <v>0.01803607214428858</v>
@@ -2172,13 +2232,13 @@
         <v>24</v>
       </c>
       <c r="B15" s="1">
-        <v>198</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1">
         <v>13</v>
       </c>
       <c r="D15" s="1">
-        <v>0.005050505050505051</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
         <v>0.01803607214428858</v>
@@ -2193,7 +2253,7 @@
         <v>25</v>
       </c>
       <c r="B16" s="1">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="C16" s="1">
         <v>14</v>
@@ -2214,7 +2274,7 @@
         <v>26</v>
       </c>
       <c r="B17" s="1">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1">
         <v>15</v>
@@ -2235,7 +2295,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="1">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C18" s="1">
         <v>16</v>
@@ -2256,7 +2316,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="1">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="C19" s="1">
         <v>17</v>
@@ -2277,7 +2337,7 @@
         <v>29</v>
       </c>
       <c r="B20" s="1">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C20" s="1">
         <v>18</v>
@@ -2298,7 +2358,7 @@
         <v>30</v>
       </c>
       <c r="B21" s="1">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1">
         <v>19</v>
@@ -2319,53 +2379,49 @@
         <v>31</v>
       </c>
       <c r="B22" s="1">
-        <v>622</v>
+        <v>187</v>
       </c>
       <c r="C22" s="1">
         <v>20</v>
       </c>
       <c r="D22" s="1">
-        <v>0.02090032154340836</v>
+        <v>0.0053475935828877</v>
       </c>
       <c r="E22" s="1">
         <v>0.01803607214428858</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0.009324396558424645</v>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="1">
-        <v>492</v>
+        <v>142</v>
       </c>
       <c r="C23" s="1">
         <v>21</v>
       </c>
       <c r="D23" s="1">
-        <v>0.01829268292682927</v>
+        <v>0.007042253521126761</v>
       </c>
       <c r="E23" s="1">
         <v>0.01803607214428858</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="1">
-        <v>-0.02451733874230944</v>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B24" s="1">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="C24" s="1">
         <v>22</v>
@@ -2383,10 +2439,10 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B25" s="1">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="C25" s="1">
         <v>23</v>
@@ -2404,10 +2460,10 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B26" s="1">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="C26" s="1">
         <v>24</v>
@@ -2425,10 +2481,10 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B27" s="1">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C27" s="1">
         <v>25</v>
@@ -2446,10 +2502,10 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B28" s="1">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C28" s="1">
         <v>26</v>
@@ -2467,10 +2523,10 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B29" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C29" s="1">
         <v>27</v>
@@ -2488,10 +2544,10 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B30" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C30" s="1">
         <v>28</v>
@@ -2509,10 +2565,10 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B31" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C31" s="1">
         <v>29</v>
@@ -2530,10 +2586,10 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B32" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C32" s="1">
         <v>30</v>
@@ -2551,7 +2607,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B33" s="1">
         <v>3</v>
@@ -2572,33 +2628,31 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B34" s="1">
-        <v>365</v>
+        <v>2</v>
       </c>
       <c r="C34" s="1">
         <v>32</v>
       </c>
       <c r="D34" s="1">
-        <v>0.01917808219178082</v>
+        <v>0</v>
       </c>
       <c r="E34" s="1">
         <v>0.01803607214428858</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G34" s="1">
-        <v>-0.01371889591626668</v>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B35" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" s="1">
         <v>33</v>
@@ -2616,58 +2670,62 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B36" s="1">
-        <v>2</v>
+        <v>997</v>
       </c>
       <c r="C36" s="1">
         <v>34</v>
       </c>
       <c r="D36" s="1">
-        <v>0</v>
+        <v>0.01805416248746239</v>
       </c>
       <c r="E36" s="1">
         <v>0.01803607214428858</v>
       </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1" t="s">
-        <v>14</v>
+      <c r="F36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.02236570435290876</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B37" s="1">
-        <v>2</v>
+        <v>991</v>
       </c>
       <c r="C37" s="1">
         <v>35</v>
       </c>
       <c r="D37" s="1">
-        <v>0</v>
+        <v>0.01816347124117054</v>
       </c>
       <c r="E37" s="1">
         <v>0.01803607214428858</v>
       </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1" t="s">
-        <v>14</v>
+      <c r="F37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.02242893696854926</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B38" s="1">
-        <v>2</v>
+        <v>539</v>
       </c>
       <c r="C38" s="1">
         <v>36</v>
       </c>
       <c r="D38" s="1">
-        <v>0</v>
+        <v>0.0111317254174397</v>
       </c>
       <c r="E38" s="1">
         <v>0.01803607214428858</v>
@@ -2679,16 +2737,16 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B39" s="1">
-        <v>1</v>
+        <v>344</v>
       </c>
       <c r="C39" s="1">
         <v>37</v>
       </c>
       <c r="D39" s="1">
-        <v>0</v>
+        <v>0.01453488372093023</v>
       </c>
       <c r="E39" s="1">
         <v>0.01803607214428858</v>
@@ -2700,16 +2758,16 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B40" s="1">
-        <v>1</v>
+        <v>204</v>
       </c>
       <c r="C40" s="1">
         <v>38</v>
       </c>
       <c r="D40" s="1">
-        <v>0</v>
+        <v>0.004901960784313725</v>
       </c>
       <c r="E40" s="1">
         <v>0.01803607214428858</v>
@@ -2721,10 +2779,10 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B41" s="1">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="C41" s="1">
         <v>39</v>
@@ -2742,10 +2800,10 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B42" s="1">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="C42" s="1">
         <v>40</v>
@@ -2763,10 +2821,10 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B43" s="1">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C43" s="1">
         <v>41</v>
@@ -2784,10 +2842,10 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B44" s="1">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C44" s="1">
         <v>42</v>
@@ -2805,33 +2863,31 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B45" s="1">
-        <v>253</v>
+        <v>17</v>
       </c>
       <c r="C45" s="1">
         <v>43</v>
       </c>
       <c r="D45" s="1">
-        <v>0.02766798418972332</v>
+        <v>0</v>
       </c>
       <c r="E45" s="1">
         <v>0.01803607214428858</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G45" s="1">
-        <v>-0.004732431118811057</v>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B46" s="1">
-        <v>167</v>
+        <v>9</v>
       </c>
       <c r="C46" s="1">
         <v>44</v>
@@ -2849,10 +2905,10 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B47" s="1">
-        <v>126</v>
+        <v>5</v>
       </c>
       <c r="C47" s="1">
         <v>45</v>
@@ -2870,10 +2926,10 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B48" s="1">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="C48" s="1">
         <v>46</v>
@@ -2891,10 +2947,10 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B49" s="1">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="C49" s="1">
         <v>47</v>
@@ -2912,16 +2968,16 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B50" s="1">
-        <v>41</v>
+        <v>398</v>
       </c>
       <c r="C50" s="1">
         <v>48</v>
       </c>
       <c r="D50" s="1">
-        <v>0</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="E50" s="1">
         <v>0.01803607214428858</v>
@@ -2933,77 +2989,75 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B51" s="1">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="C51" s="1">
         <v>49</v>
       </c>
       <c r="D51" s="1">
-        <v>0</v>
+        <v>0.01910828025477707</v>
       </c>
       <c r="E51" s="1">
         <v>0.01803607214428858</v>
       </c>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1" t="s">
-        <v>14</v>
+      <c r="F51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G51" s="1">
+        <v>-0.01819148857519146</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B52" s="1">
-        <v>997</v>
+        <v>75</v>
       </c>
       <c r="C52" s="1">
         <v>50</v>
       </c>
       <c r="D52" s="1">
-        <v>0.01805416248746239</v>
+        <v>0</v>
       </c>
       <c r="E52" s="1">
         <v>0.01803607214428858</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G52" s="1">
-        <v>0.02236570435290875</v>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B53" s="1">
-        <v>991</v>
+        <v>43</v>
       </c>
       <c r="C53" s="1">
         <v>51</v>
       </c>
       <c r="D53" s="1">
-        <v>0.01816347124117054</v>
+        <v>0</v>
       </c>
       <c r="E53" s="1">
         <v>0.01803607214428858</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G53" s="1">
-        <v>0.02242893696854926</v>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B54" s="1">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C54" s="1">
         <v>52</v>
@@ -3021,10 +3075,10 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B55" s="1">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C55" s="1">
         <v>53</v>
@@ -3042,10 +3096,10 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B56" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C56" s="1">
         <v>54</v>
@@ -3063,10 +3117,10 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B57" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C57" s="1">
         <v>55</v>
@@ -3084,16 +3138,16 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B58" s="1">
-        <v>539</v>
+        <v>3</v>
       </c>
       <c r="C58" s="1">
         <v>56</v>
       </c>
       <c r="D58" s="1">
-        <v>0.0111317254174397</v>
+        <v>0</v>
       </c>
       <c r="E58" s="1">
         <v>0.01803607214428858</v>
@@ -3105,16 +3159,16 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B59" s="1">
-        <v>344</v>
+        <v>3</v>
       </c>
       <c r="C59" s="1">
         <v>57</v>
       </c>
       <c r="D59" s="1">
-        <v>0.01453488372093023</v>
+        <v>0</v>
       </c>
       <c r="E59" s="1">
         <v>0.01803607214428858</v>
@@ -3126,16 +3180,16 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B60" s="1">
-        <v>204</v>
+        <v>3</v>
       </c>
       <c r="C60" s="1">
         <v>58</v>
       </c>
       <c r="D60" s="1">
-        <v>0.004901960784313725</v>
+        <v>0</v>
       </c>
       <c r="E60" s="1">
         <v>0.01803607214428858</v>
@@ -3147,10 +3201,10 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B61" s="1">
-        <v>136</v>
+        <v>3</v>
       </c>
       <c r="C61" s="1">
         <v>59</v>
@@ -3168,10 +3222,10 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B62" s="1">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="C62" s="1">
         <v>60</v>
@@ -3189,10 +3243,10 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B63" s="1">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="C63" s="1">
         <v>61</v>
@@ -3210,10 +3264,10 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B64" s="1">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C64" s="1">
         <v>62</v>
@@ -3231,65 +3285,71 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B65" s="1">
-        <v>17</v>
+        <v>622</v>
       </c>
       <c r="C65" s="1">
         <v>63</v>
       </c>
       <c r="D65" s="1">
-        <v>0</v>
+        <v>0.02090032154340836</v>
       </c>
       <c r="E65" s="1">
         <v>0.01803607214428858</v>
       </c>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1" t="s">
-        <v>14</v>
+      <c r="F65" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0.009324396558424645</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B66" s="1">
-        <v>187</v>
+        <v>492</v>
       </c>
       <c r="C66" s="1">
         <v>64</v>
       </c>
       <c r="D66" s="1">
-        <v>0.0053475935828877</v>
+        <v>0.01829268292682927</v>
       </c>
       <c r="E66" s="1">
         <v>0.01803607214428858</v>
       </c>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1" t="s">
-        <v>14</v>
+      <c r="F66" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G66" s="1">
+        <v>-0.02451733874230944</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B67" s="1">
-        <v>142</v>
+        <v>365</v>
       </c>
       <c r="C67" s="1">
         <v>65</v>
       </c>
       <c r="D67" s="1">
-        <v>0.007042253521126761</v>
+        <v>0.01917808219178082</v>
       </c>
       <c r="E67" s="1">
         <v>0.01803607214428858</v>
       </c>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1" t="s">
-        <v>14</v>
+      <c r="F67" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G67" s="1">
+        <v>-0.01371889591626668</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3297,28 +3357,30 @@
         <v>83</v>
       </c>
       <c r="B68" s="1">
-        <v>5</v>
+        <v>253</v>
       </c>
       <c r="C68" s="1">
         <v>66</v>
       </c>
       <c r="D68" s="1">
-        <v>0</v>
+        <v>0.02766798418972332</v>
       </c>
       <c r="E68" s="1">
         <v>0.01803607214428858</v>
       </c>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1" t="s">
-        <v>14</v>
+      <c r="F68" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G68" s="1">
+        <v>-0.004732431118811056</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B69" s="1">
-        <v>3</v>
+        <v>167</v>
       </c>
       <c r="C69" s="1">
         <v>67</v>
@@ -3336,10 +3398,10 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B70" s="1">
-        <v>2</v>
+        <v>126</v>
       </c>
       <c r="C70" s="1">
         <v>68</v>
@@ -3357,10 +3419,10 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B71" s="1">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="C71" s="1">
         <v>69</v>
@@ -3378,10 +3440,10 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B72" s="1">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="C72" s="1">
         <v>70</v>
@@ -3399,10 +3461,10 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B73" s="1">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="C73" s="1">
         <v>71</v>
@@ -3420,10 +3482,10 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B74" s="1">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C74" s="1">
         <v>72</v>
@@ -3441,10 +3503,10 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B75" s="1">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C75" s="1">
         <v>73</v>
@@ -3462,10 +3524,10 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B76" s="1">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C76" s="1">
         <v>74</v>
@@ -3483,10 +3545,10 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B77" s="1">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C77" s="1">
         <v>75</v>
@@ -3504,10 +3566,10 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B78" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C78" s="1">
         <v>76</v>
@@ -3525,10 +3587,10 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B79" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C79" s="1">
         <v>77</v>
@@ -3546,16 +3608,16 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B80" s="1">
-        <v>998</v>
+        <v>6</v>
       </c>
       <c r="C80" s="1">
         <v>78</v>
       </c>
       <c r="D80" s="1">
-        <v>0.01803607214428858</v>
+        <v>0</v>
       </c>
       <c r="E80" s="1">
         <v>0.01803607214428858</v>
@@ -3567,25 +3629,23 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B81" s="1">
-        <v>683</v>
+        <v>5</v>
       </c>
       <c r="C81" s="1">
         <v>79</v>
       </c>
       <c r="D81" s="1">
-        <v>0.02196193265007321</v>
+        <v>0</v>
       </c>
       <c r="E81" s="1">
         <v>0.01803607214428858</v>
       </c>
-      <c r="F81" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G81" s="1">
-        <v>0.01433901213859313</v>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3593,7 +3653,7 @@
         <v>98</v>
       </c>
       <c r="B82" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C82" s="1">
         <v>80</v>
@@ -3614,7 +3674,7 @@
         <v>99</v>
       </c>
       <c r="B83" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C83" s="1">
         <v>81</v>
@@ -3635,7 +3695,7 @@
         <v>100</v>
       </c>
       <c r="B84" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C84" s="1">
         <v>82</v>
@@ -3656,13 +3716,13 @@
         <v>101</v>
       </c>
       <c r="B85" s="1">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="C85" s="1">
         <v>83</v>
       </c>
       <c r="D85" s="1">
-        <v>0.01052631578947368</v>
+        <v>0</v>
       </c>
       <c r="E85" s="1">
         <v>0.01803607214428858</v>
@@ -3677,53 +3737,49 @@
         <v>102</v>
       </c>
       <c r="B86" s="1">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="C86" s="1">
         <v>84</v>
       </c>
       <c r="D86" s="1">
-        <v>0.01923076923076923</v>
+        <v>0</v>
       </c>
       <c r="E86" s="1">
         <v>0.01803607214428858</v>
       </c>
-      <c r="F86" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G86" s="1">
-        <v>-0.003985958412439892</v>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B87" s="1">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C87" s="1">
         <v>85</v>
       </c>
       <c r="D87" s="1">
-        <v>0.04347826086956522</v>
+        <v>0</v>
       </c>
       <c r="E87" s="1">
         <v>0.01803607214428858</v>
       </c>
-      <c r="F87" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G87" s="1">
-        <v>0.01117908815726969</v>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B88" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C88" s="1">
         <v>86</v>
@@ -3741,10 +3797,10 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B89" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C89" s="1">
         <v>87</v>
@@ -3762,10 +3818,10 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B90" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C90" s="1">
         <v>88</v>
@@ -3783,10 +3839,10 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B91" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C91" s="1">
         <v>89</v>
@@ -3804,10 +3860,10 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B92" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C92" s="1">
         <v>90</v>
@@ -3825,16 +3881,16 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B93" s="1">
-        <v>398</v>
+        <v>1</v>
       </c>
       <c r="C93" s="1">
         <v>91</v>
       </c>
       <c r="D93" s="1">
-        <v>0.01507537688442211</v>
+        <v>0</v>
       </c>
       <c r="E93" s="1">
         <v>0.01803607214428858</v>
@@ -3846,39 +3902,37 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B94" s="1">
-        <v>157</v>
+        <v>1</v>
       </c>
       <c r="C94" s="1">
         <v>92</v>
       </c>
       <c r="D94" s="1">
-        <v>0.01910828025477707</v>
+        <v>0</v>
       </c>
       <c r="E94" s="1">
         <v>0.01803607214428858</v>
       </c>
-      <c r="F94" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G94" s="1">
-        <v>-0.01819148857519146</v>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B95" s="1">
-        <v>3</v>
+        <v>998</v>
       </c>
       <c r="C95" s="1">
         <v>93</v>
       </c>
       <c r="D95" s="1">
-        <v>0</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="E95" s="1">
         <v>0.01803607214428858</v>
@@ -3890,37 +3944,39 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B96" s="1">
-        <v>3</v>
+        <v>683</v>
       </c>
       <c r="C96" s="1">
         <v>94</v>
       </c>
       <c r="D96" s="1">
-        <v>0</v>
+        <v>0.02196193265007321</v>
       </c>
       <c r="E96" s="1">
         <v>0.01803607214428858</v>
       </c>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1" t="s">
-        <v>14</v>
+      <c r="F96" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G96" s="1">
+        <v>0.01433901213859313</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B97" s="1">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="C97" s="1">
         <v>95</v>
       </c>
       <c r="D97" s="1">
-        <v>0</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="E97" s="1">
         <v>0.01803607214428858</v>
@@ -3932,44 +3988,48 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B98" s="1">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C98" s="1">
         <v>96</v>
       </c>
       <c r="D98" s="1">
-        <v>0</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="E98" s="1">
         <v>0.01803607214428858</v>
       </c>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1" t="s">
-        <v>14</v>
+      <c r="F98" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G98" s="1">
+        <v>-0.003985958412439892</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B99" s="1">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C99" s="1">
         <v>97</v>
       </c>
       <c r="D99" s="1">
-        <v>0</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="E99" s="1">
         <v>0.01803607214428858</v>
       </c>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1" t="s">
-        <v>14</v>
+      <c r="F99" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0.01117908815726969</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3977,7 +4037,7 @@
         <v>119</v>
       </c>
       <c r="B100" s="1">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="C100" s="1">
         <v>98</v>
@@ -3998,7 +4058,7 @@
         <v>120</v>
       </c>
       <c r="B101" s="1">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C101" s="1">
         <v>99</v>
@@ -4019,7 +4079,7 @@
         <v>121</v>
       </c>
       <c r="B102" s="1">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C102" s="1">
         <v>100</v>
@@ -4040,7 +4100,7 @@
         <v>122</v>
       </c>
       <c r="B103" s="1">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C103" s="1">
         <v>101</v>
@@ -4061,7 +4121,7 @@
         <v>123</v>
       </c>
       <c r="B104" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C104" s="1">
         <v>102</v>
@@ -4082,7 +4142,7 @@
         <v>124</v>
       </c>
       <c r="B105" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C105" s="1">
         <v>103</v>
@@ -4103,7 +4163,7 @@
         <v>125</v>
       </c>
       <c r="B106" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C106" s="1">
         <v>104</v>
@@ -4124,7 +4184,7 @@
         <v>126</v>
       </c>
       <c r="B107" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C107" s="1">
         <v>105</v>
@@ -4147,7 +4207,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4285,6 +4345,92 @@
       </c>
       <c r="L5" s="1">
         <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3">
+        <v>309</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.01294498381877023</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.01803607214428858</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-0.005091088325518351</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3">
+        <v>198</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.005050505050505051</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.01803607214428858</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-0.01298556709378353</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
         <v>0</v>
       </c>
     </row>
@@ -4353,7 +4499,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="B4" s="3">
         <v>187</v>
@@ -4396,7 +4542,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="B5" s="3">
         <v>142</v>
@@ -4445,7 +4591,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4502,7 +4648,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B4" s="3">
         <v>997</v>
@@ -4545,7 +4691,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B5" s="3">
         <v>991</v>
@@ -4583,6 +4729,135 @@
       </c>
       <c r="L5" s="1">
         <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="3">
+        <v>539</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.0111317254174397</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.01803607214428858</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-0.006904346726848875</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="3">
+        <v>344</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.01453488372093023</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.01803607214428858</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-0.003501188423358345</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="3">
+        <v>204</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.004901960784313725</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.01803607214428858</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-0.01313411135997485</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
         <v>0</v>
       </c>
     </row>
@@ -4594,7 +4869,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4651,7 +4926,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="B4" s="3">
         <v>622</v>
@@ -4694,7 +4969,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="B5" s="3">
         <v>492</v>
@@ -4732,6 +5007,92 @@
       </c>
       <c r="L5" s="1">
         <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="3">
+        <v>365</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.01917808219178082</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.01803607214428858</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.001142010047492245</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="3">
+        <v>253</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.02766798418972332</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.01803607214428858</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.009631912045434742</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
         <v>0</v>
       </c>
     </row>
@@ -4743,7 +5104,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4800,7 +5161,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B4" s="3">
         <v>998</v>
@@ -4843,7 +5204,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="B5" s="3">
         <v>683</v>
@@ -4881,6 +5242,135 @@
       </c>
       <c r="L5" s="1">
         <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="3">
+        <v>95</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.01052631578947368</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.01803607214428858</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-0.007509756354814894</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="3">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.01923076923076923</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.01803607214428858</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.001194697086480654</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="3">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.01803607214428858</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.02544218872527664</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
         <v>0</v>
       </c>
     </row>
@@ -4949,7 +5439,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="B4" s="3">
         <v>398</v>
@@ -4992,7 +5482,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="B5" s="3">
         <v>157</v>

--- a/06-03-2023/data/output/xlsx/sample_0/category__8.xlsx
+++ b/06-03-2023/data/output/xlsx/sample_0/category__8.xlsx
@@ -52,13 +52,13 @@
     <t>num_of_adds_and_subs__0</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4</t>
+    <t>num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4</t>
+    <t>num_of_adds_and_subs__0,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__2</t>
@@ -115,6 +115,156 @@
     <t>num_of_adds_and_subs__18</t>
   </si>
   <si>
+    <t>num_of_decimals__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_decimals__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_decimals__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_decimals__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_decimals__4</t>
+  </si>
+  <si>
+    <t>num_of_decimals__5</t>
+  </si>
+  <si>
+    <t>num_of_decimals__6</t>
+  </si>
+  <si>
+    <t>num_of_decimals__7</t>
+  </si>
+  <si>
+    <t>num_of_decimals__8</t>
+  </si>
+  <si>
+    <t>num_of_decimals__9</t>
+  </si>
+  <si>
+    <t>num_of_decimals__10</t>
+  </si>
+  <si>
+    <t>num_of_decimals__11</t>
+  </si>
+  <si>
+    <t>num_of_decimals__12</t>
+  </si>
+  <si>
+    <t>num_of_decimals__13</t>
+  </si>
+  <si>
+    <t>num_of_decimals__14</t>
+  </si>
+  <si>
+    <t>num_of_decimals__15</t>
+  </si>
+  <si>
+    <t>num_of_decimals__16</t>
+  </si>
+  <si>
+    <t>num_of_decimals__17</t>
+  </si>
+  <si>
+    <t>num_of_decimals__18</t>
+  </si>
+  <si>
+    <t>num_of_decimals__19</t>
+  </si>
+  <si>
+    <t>num_of_decimals__20</t>
+  </si>
+  <si>
+    <t>num_of_decimals__21</t>
+  </si>
+  <si>
+    <t>num_of_decimals__22</t>
+  </si>
+  <si>
+    <t>num_of_decimals__23</t>
+  </si>
+  <si>
+    <t>num_of_decimals__24</t>
+  </si>
+  <si>
+    <t>num_of_decimals__25</t>
+  </si>
+  <si>
+    <t>num_of_decimals__26</t>
+  </si>
+  <si>
+    <t>num_of_decimals__27</t>
+  </si>
+  <si>
+    <t>num_of_decimals__28</t>
+  </si>
+  <si>
+    <t>num_of_decimals__29</t>
+  </si>
+  <si>
+    <t>num_of_equals__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_equals__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_equals__2</t>
+  </si>
+  <si>
+    <t>num_of_equals__3</t>
+  </si>
+  <si>
+    <t>num_of_equals__4</t>
+  </si>
+  <si>
+    <t>num_of_equals__5</t>
+  </si>
+  <si>
+    <t>num_of_equals__6</t>
+  </si>
+  <si>
+    <t>num_of_equals__7</t>
+  </si>
+  <si>
+    <t>num_of_equals__8</t>
+  </si>
+  <si>
+    <t>num_of_equals__9</t>
+  </si>
+  <si>
+    <t>num_of_equals__10</t>
+  </si>
+  <si>
+    <t>num_of_equals__11</t>
+  </si>
+  <si>
+    <t>num_of_equals__12</t>
+  </si>
+  <si>
+    <t>num_of_equals__13</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__0</t>
   </si>
   <si>
@@ -157,52 +307,52 @@
     <t>num_of_mults_and_divs__13</t>
   </si>
   <si>
-    <t>num_of_equals__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_equals__1,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4</t>
-  </si>
-  <si>
-    <t>num_of_equals__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_equals__0,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4</t>
-  </si>
-  <si>
-    <t>num_of_equals__2</t>
-  </si>
-  <si>
-    <t>num_of_equals__3</t>
-  </si>
-  <si>
-    <t>num_of_equals__4</t>
-  </si>
-  <si>
-    <t>num_of_equals__5</t>
-  </si>
-  <si>
-    <t>num_of_equals__6</t>
-  </si>
-  <si>
-    <t>num_of_equals__7</t>
-  </si>
-  <si>
-    <t>num_of_equals__8</t>
-  </si>
-  <si>
-    <t>num_of_equals__9</t>
-  </si>
-  <si>
-    <t>num_of_equals__10</t>
-  </si>
-  <si>
-    <t>num_of_equals__11</t>
-  </si>
-  <si>
-    <t>num_of_equals__12</t>
-  </si>
-  <si>
-    <t>num_of_equals__13</t>
+    <t>num_of_unknowns__0</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__1</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__2</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__3</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__4,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__4</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__3,pairs_of_parentheses__1</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__5</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__6</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__7</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__8</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__9</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__10</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__11</t>
+  </si>
+  <si>
+    <t>num_of_unknowns__12</t>
   </si>
   <si>
     <t>pairs_of_parentheses__0</t>
@@ -211,7 +361,7 @@
     <t>pairs_of_parentheses__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_equals__0,num_of_equals__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4</t>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4</t>
   </si>
   <si>
     <t>pairs_of_parentheses__2</t>
@@ -251,156 +401,6 @@
   </si>
   <si>
     <t>pairs_of_parentheses__14</t>
-  </si>
-  <si>
-    <t>num_of_decimals__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__1,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4</t>
-  </si>
-  <si>
-    <t>num_of_decimals__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__2,num_of_decimals__3,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4</t>
-  </si>
-  <si>
-    <t>num_of_decimals__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4</t>
-  </si>
-  <si>
-    <t>num_of_decimals__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_unknowns__1,num_of_unknowns__3,num_of_unknowns__4</t>
-  </si>
-  <si>
-    <t>num_of_decimals__4</t>
-  </si>
-  <si>
-    <t>num_of_decimals__5</t>
-  </si>
-  <si>
-    <t>num_of_decimals__6</t>
-  </si>
-  <si>
-    <t>num_of_decimals__7</t>
-  </si>
-  <si>
-    <t>num_of_decimals__8</t>
-  </si>
-  <si>
-    <t>num_of_decimals__9</t>
-  </si>
-  <si>
-    <t>num_of_decimals__10</t>
-  </si>
-  <si>
-    <t>num_of_decimals__11</t>
-  </si>
-  <si>
-    <t>num_of_decimals__12</t>
-  </si>
-  <si>
-    <t>num_of_decimals__13</t>
-  </si>
-  <si>
-    <t>num_of_decimals__14</t>
-  </si>
-  <si>
-    <t>num_of_decimals__15</t>
-  </si>
-  <si>
-    <t>num_of_decimals__16</t>
-  </si>
-  <si>
-    <t>num_of_decimals__17</t>
-  </si>
-  <si>
-    <t>num_of_decimals__18</t>
-  </si>
-  <si>
-    <t>num_of_decimals__19</t>
-  </si>
-  <si>
-    <t>num_of_decimals__20</t>
-  </si>
-  <si>
-    <t>num_of_decimals__21</t>
-  </si>
-  <si>
-    <t>num_of_decimals__22</t>
-  </si>
-  <si>
-    <t>num_of_decimals__23</t>
-  </si>
-  <si>
-    <t>num_of_decimals__24</t>
-  </si>
-  <si>
-    <t>num_of_decimals__25</t>
-  </si>
-  <si>
-    <t>num_of_decimals__26</t>
-  </si>
-  <si>
-    <t>num_of_decimals__27</t>
-  </si>
-  <si>
-    <t>num_of_decimals__28</t>
-  </si>
-  <si>
-    <t>num_of_decimals__29</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__0</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_unknowns__3,num_of_unknowns__4</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__2</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__3</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_unknowns__1,num_of_unknowns__4</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__4</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_equals__0,num_of_equals__1,pairs_of_parentheses__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_unknowns__1,num_of_unknowns__3</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__5</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__6</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__7</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__8</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__9</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__10</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__11</t>
-  </si>
-  <si>
-    <t>num_of_unknowns__12</t>
   </si>
   <si>
     <t>Number of Additions And Subtractions Chart</t>
@@ -2379,91 +2379,99 @@
         <v>31</v>
       </c>
       <c r="B22" s="1">
-        <v>187</v>
+        <v>622</v>
       </c>
       <c r="C22" s="1">
         <v>20</v>
       </c>
       <c r="D22" s="1">
-        <v>0.0053475935828877</v>
+        <v>0.02090032154340836</v>
       </c>
       <c r="E22" s="1">
         <v>0.01803607214428858</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1" t="s">
-        <v>14</v>
+      <c r="F22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.009324396558424645</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" s="1">
-        <v>142</v>
+        <v>492</v>
       </c>
       <c r="C23" s="1">
         <v>21</v>
       </c>
       <c r="D23" s="1">
-        <v>0.007042253521126761</v>
+        <v>0.01829268292682927</v>
       </c>
       <c r="E23" s="1">
         <v>0.01803607214428858</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1" t="s">
-        <v>14</v>
+      <c r="F23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="1">
+        <v>-0.02451733874230944</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B24" s="1">
-        <v>93</v>
+        <v>365</v>
       </c>
       <c r="C24" s="1">
         <v>22</v>
       </c>
       <c r="D24" s="1">
-        <v>0</v>
+        <v>0.01917808219178082</v>
       </c>
       <c r="E24" s="1">
         <v>0.01803607214428858</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1" t="s">
-        <v>14</v>
+      <c r="F24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="1">
+        <v>-0.01371889591626668</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B25" s="1">
-        <v>73</v>
+        <v>253</v>
       </c>
       <c r="C25" s="1">
         <v>23</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <v>0.02766798418972332</v>
       </c>
       <c r="E25" s="1">
         <v>0.01803607214428858</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1" t="s">
-        <v>14</v>
+      <c r="F25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="1">
+        <v>-0.004732431118811057</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B26" s="1">
-        <v>54</v>
+        <v>167</v>
       </c>
       <c r="C26" s="1">
         <v>24</v>
@@ -2481,10 +2489,10 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B27" s="1">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="C27" s="1">
         <v>25</v>
@@ -2502,10 +2510,10 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B28" s="1">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="C28" s="1">
         <v>26</v>
@@ -2523,10 +2531,10 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B29" s="1">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="C29" s="1">
         <v>27</v>
@@ -2544,10 +2552,10 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B30" s="1">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C30" s="1">
         <v>28</v>
@@ -2565,10 +2573,10 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B31" s="1">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C31" s="1">
         <v>29</v>
@@ -2586,10 +2594,10 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B32" s="1">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C32" s="1">
         <v>30</v>
@@ -2607,10 +2615,10 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B33" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C33" s="1">
         <v>31</v>
@@ -2628,10 +2636,10 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B34" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C34" s="1">
         <v>32</v>
@@ -2649,10 +2657,10 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B35" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C35" s="1">
         <v>33</v>
@@ -2670,62 +2678,58 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B36" s="1">
-        <v>997</v>
+        <v>6</v>
       </c>
       <c r="C36" s="1">
         <v>34</v>
       </c>
       <c r="D36" s="1">
-        <v>0.01805416248746239</v>
+        <v>0</v>
       </c>
       <c r="E36" s="1">
         <v>0.01803607214428858</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G36" s="1">
-        <v>0.02236570435290876</v>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B37" s="1">
-        <v>991</v>
+        <v>6</v>
       </c>
       <c r="C37" s="1">
         <v>35</v>
       </c>
       <c r="D37" s="1">
-        <v>0.01816347124117054</v>
+        <v>0</v>
       </c>
       <c r="E37" s="1">
         <v>0.01803607214428858</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0.02242893696854926</v>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B38" s="1">
-        <v>539</v>
+        <v>5</v>
       </c>
       <c r="C38" s="1">
         <v>36</v>
       </c>
       <c r="D38" s="1">
-        <v>0.0111317254174397</v>
+        <v>0</v>
       </c>
       <c r="E38" s="1">
         <v>0.01803607214428858</v>
@@ -2737,16 +2741,16 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B39" s="1">
-        <v>344</v>
+        <v>4</v>
       </c>
       <c r="C39" s="1">
         <v>37</v>
       </c>
       <c r="D39" s="1">
-        <v>0.01453488372093023</v>
+        <v>0</v>
       </c>
       <c r="E39" s="1">
         <v>0.01803607214428858</v>
@@ -2758,16 +2762,16 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B40" s="1">
-        <v>204</v>
+        <v>4</v>
       </c>
       <c r="C40" s="1">
         <v>38</v>
       </c>
       <c r="D40" s="1">
-        <v>0.004901960784313725</v>
+        <v>0</v>
       </c>
       <c r="E40" s="1">
         <v>0.01803607214428858</v>
@@ -2779,10 +2783,10 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B41" s="1">
-        <v>136</v>
+        <v>3</v>
       </c>
       <c r="C41" s="1">
         <v>39</v>
@@ -2800,10 +2804,10 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B42" s="1">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="C42" s="1">
         <v>40</v>
@@ -2821,10 +2825,10 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B43" s="1">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="C43" s="1">
         <v>41</v>
@@ -2842,10 +2846,10 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B44" s="1">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="C44" s="1">
         <v>42</v>
@@ -2863,10 +2867,10 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B45" s="1">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C45" s="1">
         <v>43</v>
@@ -2884,10 +2888,10 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B46" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C46" s="1">
         <v>44</v>
@@ -2905,10 +2909,10 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B47" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C47" s="1">
         <v>45</v>
@@ -2926,7 +2930,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B48" s="1">
         <v>1</v>
@@ -2947,7 +2951,7 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B49" s="1">
         <v>1</v>
@@ -2968,16 +2972,16 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B50" s="1">
-        <v>398</v>
+        <v>1</v>
       </c>
       <c r="C50" s="1">
         <v>48</v>
       </c>
       <c r="D50" s="1">
-        <v>0.01507537688442211</v>
+        <v>0</v>
       </c>
       <c r="E50" s="1">
         <v>0.01803607214428858</v>
@@ -2989,81 +2993,83 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B51" s="1">
-        <v>157</v>
+        <v>1</v>
       </c>
       <c r="C51" s="1">
         <v>49</v>
       </c>
       <c r="D51" s="1">
-        <v>0.01910828025477707</v>
+        <v>0</v>
       </c>
       <c r="E51" s="1">
         <v>0.01803607214428858</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G51" s="1">
-        <v>-0.01819148857519146</v>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B52" s="1">
-        <v>75</v>
+        <v>997</v>
       </c>
       <c r="C52" s="1">
         <v>50</v>
       </c>
       <c r="D52" s="1">
-        <v>0</v>
+        <v>0.01805416248746239</v>
       </c>
       <c r="E52" s="1">
         <v>0.01803607214428858</v>
       </c>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1" t="s">
-        <v>14</v>
+      <c r="F52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.02236570435290875</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B53" s="1">
-        <v>43</v>
+        <v>991</v>
       </c>
       <c r="C53" s="1">
         <v>51</v>
       </c>
       <c r="D53" s="1">
-        <v>0</v>
+        <v>0.01816347124117054</v>
       </c>
       <c r="E53" s="1">
         <v>0.01803607214428858</v>
       </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1" t="s">
-        <v>14</v>
+      <c r="F53" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0.02242893696854926</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B54" s="1">
-        <v>25</v>
+        <v>539</v>
       </c>
       <c r="C54" s="1">
         <v>52</v>
       </c>
       <c r="D54" s="1">
-        <v>0</v>
+        <v>0.0111317254174397</v>
       </c>
       <c r="E54" s="1">
         <v>0.01803607214428858</v>
@@ -3075,16 +3081,16 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B55" s="1">
-        <v>17</v>
+        <v>344</v>
       </c>
       <c r="C55" s="1">
         <v>53</v>
       </c>
       <c r="D55" s="1">
-        <v>0</v>
+        <v>0.01453488372093023</v>
       </c>
       <c r="E55" s="1">
         <v>0.01803607214428858</v>
@@ -3096,16 +3102,16 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B56" s="1">
-        <v>8</v>
+        <v>204</v>
       </c>
       <c r="C56" s="1">
         <v>54</v>
       </c>
       <c r="D56" s="1">
-        <v>0</v>
+        <v>0.004901960784313725</v>
       </c>
       <c r="E56" s="1">
         <v>0.01803607214428858</v>
@@ -3117,10 +3123,10 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B57" s="1">
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="C57" s="1">
         <v>55</v>
@@ -3138,10 +3144,10 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B58" s="1">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C58" s="1">
         <v>56</v>
@@ -3159,10 +3165,10 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B59" s="1">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="C59" s="1">
         <v>57</v>
@@ -3180,10 +3186,10 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B60" s="1">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C60" s="1">
         <v>58</v>
@@ -3201,10 +3207,10 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B61" s="1">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C61" s="1">
         <v>59</v>
@@ -3222,10 +3228,10 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B62" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C62" s="1">
         <v>60</v>
@@ -3243,10 +3249,10 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B63" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C63" s="1">
         <v>61</v>
@@ -3264,7 +3270,7 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B64" s="1">
         <v>1</v>
@@ -3285,71 +3291,65 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B65" s="1">
-        <v>622</v>
+        <v>1</v>
       </c>
       <c r="C65" s="1">
         <v>63</v>
       </c>
       <c r="D65" s="1">
-        <v>0.02090032154340836</v>
+        <v>0</v>
       </c>
       <c r="E65" s="1">
         <v>0.01803607214428858</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G65" s="1">
-        <v>0.009324396558424645</v>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B66" s="1">
-        <v>492</v>
+        <v>187</v>
       </c>
       <c r="C66" s="1">
         <v>64</v>
       </c>
       <c r="D66" s="1">
-        <v>0.01829268292682927</v>
+        <v>0.0053475935828877</v>
       </c>
       <c r="E66" s="1">
         <v>0.01803607214428858</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G66" s="1">
-        <v>-0.02451733874230944</v>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B67" s="1">
-        <v>365</v>
+        <v>142</v>
       </c>
       <c r="C67" s="1">
         <v>65</v>
       </c>
       <c r="D67" s="1">
-        <v>0.01917808219178082</v>
+        <v>0.007042253521126761</v>
       </c>
       <c r="E67" s="1">
         <v>0.01803607214428858</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G67" s="1">
-        <v>-0.01371889591626668</v>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3357,30 +3357,28 @@
         <v>83</v>
       </c>
       <c r="B68" s="1">
-        <v>253</v>
+        <v>93</v>
       </c>
       <c r="C68" s="1">
         <v>66</v>
       </c>
       <c r="D68" s="1">
-        <v>0.02766798418972332</v>
+        <v>0</v>
       </c>
       <c r="E68" s="1">
         <v>0.01803607214428858</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G68" s="1">
-        <v>-0.004732431118811056</v>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B69" s="1">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="C69" s="1">
         <v>67</v>
@@ -3398,10 +3396,10 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B70" s="1">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="C70" s="1">
         <v>68</v>
@@ -3419,10 +3417,10 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B71" s="1">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="C71" s="1">
         <v>69</v>
@@ -3440,10 +3438,10 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B72" s="1">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="C72" s="1">
         <v>70</v>
@@ -3461,10 +3459,10 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B73" s="1">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C73" s="1">
         <v>71</v>
@@ -3482,10 +3480,10 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B74" s="1">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C74" s="1">
         <v>72</v>
@@ -3503,10 +3501,10 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B75" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C75" s="1">
         <v>73</v>
@@ -3524,10 +3522,10 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B76" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C76" s="1">
         <v>74</v>
@@ -3545,10 +3543,10 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B77" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C77" s="1">
         <v>75</v>
@@ -3566,10 +3564,10 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B78" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C78" s="1">
         <v>76</v>
@@ -3587,10 +3585,10 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B79" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C79" s="1">
         <v>77</v>
@@ -3608,16 +3606,16 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B80" s="1">
-        <v>6</v>
+        <v>998</v>
       </c>
       <c r="C80" s="1">
         <v>78</v>
       </c>
       <c r="D80" s="1">
-        <v>0</v>
+        <v>0.01803607214428858</v>
       </c>
       <c r="E80" s="1">
         <v>0.01803607214428858</v>
@@ -3629,23 +3627,25 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B81" s="1">
-        <v>5</v>
+        <v>683</v>
       </c>
       <c r="C81" s="1">
         <v>79</v>
       </c>
       <c r="D81" s="1">
-        <v>0</v>
+        <v>0.02196193265007321</v>
       </c>
       <c r="E81" s="1">
         <v>0.01803607214428858</v>
       </c>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1" t="s">
-        <v>14</v>
+      <c r="F81" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0.01433901213859313</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3653,13 +3653,13 @@
         <v>98</v>
       </c>
       <c r="B82" s="1">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="C82" s="1">
         <v>80</v>
       </c>
       <c r="D82" s="1">
-        <v>0</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="E82" s="1">
         <v>0.01803607214428858</v>
@@ -3674,49 +3674,53 @@
         <v>99</v>
       </c>
       <c r="B83" s="1">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="C83" s="1">
         <v>81</v>
       </c>
       <c r="D83" s="1">
-        <v>0</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="E83" s="1">
         <v>0.01803607214428858</v>
       </c>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1" t="s">
-        <v>14</v>
+      <c r="F83" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G83" s="1">
+        <v>-0.003985958412439892</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B84" s="1">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C84" s="1">
         <v>82</v>
       </c>
       <c r="D84" s="1">
-        <v>0</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="E84" s="1">
         <v>0.01803607214428858</v>
       </c>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1" t="s">
-        <v>14</v>
+      <c r="F84" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0.01117908815726969</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B85" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C85" s="1">
         <v>83</v>
@@ -3734,10 +3738,10 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B86" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C86" s="1">
         <v>84</v>
@@ -3755,10 +3759,10 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B87" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C87" s="1">
         <v>85</v>
@@ -3776,10 +3780,10 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B88" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C88" s="1">
         <v>86</v>
@@ -3797,10 +3801,10 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B89" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C89" s="1">
         <v>87</v>
@@ -3818,10 +3822,10 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B90" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C90" s="1">
         <v>88</v>
@@ -3839,7 +3843,7 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B91" s="1">
         <v>1</v>
@@ -3860,7 +3864,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B92" s="1">
         <v>1</v>
@@ -3881,16 +3885,16 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B93" s="1">
-        <v>1</v>
+        <v>398</v>
       </c>
       <c r="C93" s="1">
         <v>91</v>
       </c>
       <c r="D93" s="1">
-        <v>0</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="E93" s="1">
         <v>0.01803607214428858</v>
@@ -3902,37 +3906,39 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B94" s="1">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="C94" s="1">
         <v>92</v>
       </c>
       <c r="D94" s="1">
-        <v>0</v>
+        <v>0.01910828025477707</v>
       </c>
       <c r="E94" s="1">
         <v>0.01803607214428858</v>
       </c>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1" t="s">
-        <v>14</v>
+      <c r="F94" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G94" s="1">
+        <v>-0.01819148857519146</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B95" s="1">
-        <v>998</v>
+        <v>75</v>
       </c>
       <c r="C95" s="1">
         <v>93</v>
       </c>
       <c r="D95" s="1">
-        <v>0.01803607214428858</v>
+        <v>0</v>
       </c>
       <c r="E95" s="1">
         <v>0.01803607214428858</v>
@@ -3944,39 +3950,37 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B96" s="1">
-        <v>683</v>
+        <v>43</v>
       </c>
       <c r="C96" s="1">
         <v>94</v>
       </c>
       <c r="D96" s="1">
-        <v>0.02196193265007321</v>
+        <v>0</v>
       </c>
       <c r="E96" s="1">
         <v>0.01803607214428858</v>
       </c>
-      <c r="F96" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G96" s="1">
-        <v>0.01433901213859313</v>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B97" s="1">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="C97" s="1">
         <v>95</v>
       </c>
       <c r="D97" s="1">
-        <v>0.01052631578947368</v>
+        <v>0</v>
       </c>
       <c r="E97" s="1">
         <v>0.01803607214428858</v>
@@ -3988,48 +3992,44 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B98" s="1">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="C98" s="1">
         <v>96</v>
       </c>
       <c r="D98" s="1">
-        <v>0.01923076923076923</v>
+        <v>0</v>
       </c>
       <c r="E98" s="1">
         <v>0.01803607214428858</v>
       </c>
-      <c r="F98" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G98" s="1">
-        <v>-0.003985958412439892</v>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B99" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C99" s="1">
         <v>97</v>
       </c>
       <c r="D99" s="1">
-        <v>0.04347826086956522</v>
+        <v>0</v>
       </c>
       <c r="E99" s="1">
         <v>0.01803607214428858</v>
       </c>
-      <c r="F99" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G99" s="1">
-        <v>0.01117908815726969</v>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -4037,7 +4037,7 @@
         <v>119</v>
       </c>
       <c r="B100" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C100" s="1">
         <v>98</v>
@@ -4058,7 +4058,7 @@
         <v>120</v>
       </c>
       <c r="B101" s="1">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C101" s="1">
         <v>99</v>
@@ -4079,7 +4079,7 @@
         <v>121</v>
       </c>
       <c r="B102" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C102" s="1">
         <v>100</v>
@@ -4100,7 +4100,7 @@
         <v>122</v>
       </c>
       <c r="B103" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C103" s="1">
         <v>101</v>
@@ -4499,7 +4499,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="B4" s="3">
         <v>187</v>
@@ -4542,7 +4542,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="B5" s="3">
         <v>142</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="B4" s="3">
         <v>997</v>
@@ -4691,7 +4691,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B5" s="3">
         <v>991</v>
@@ -4734,7 +4734,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B6" s="3">
         <v>539</v>
@@ -4777,7 +4777,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B7" s="3">
         <v>344</v>
@@ -4820,7 +4820,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B8" s="3">
         <v>204</v>
@@ -4926,7 +4926,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="B4" s="3">
         <v>622</v>
@@ -4969,7 +4969,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="B5" s="3">
         <v>492</v>
@@ -5012,7 +5012,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="B6" s="3">
         <v>365</v>
@@ -5055,7 +5055,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="B7" s="3">
         <v>253</v>
@@ -5161,7 +5161,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="B4" s="3">
         <v>998</v>
@@ -5204,7 +5204,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="B5" s="3">
         <v>683</v>
@@ -5247,7 +5247,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="B6" s="3">
         <v>95</v>
@@ -5290,7 +5290,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B7" s="3">
         <v>52</v>
@@ -5333,7 +5333,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B8" s="3">
         <v>23</v>
@@ -5439,7 +5439,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="B4" s="3">
         <v>398</v>
@@ -5482,7 +5482,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="B5" s="3">
         <v>157</v>
